--- a/pred_ohlcv/54_21/2020-01-26 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BTC ohlcv.xlsx
@@ -1354,7 +1354,7 @@
         <v>18.14636291</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21.32074157</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>27.39968158</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>27.39968158</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>17.02498158</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17.02018158</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19.07098158</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19.08788158</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>17.97128158</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>17.97128158</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>17.97848477</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>21.13697839000001</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>18.18887557</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>18.18547557</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>18.18547557</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>18.18547557</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>18.14767557</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17.3280699</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>17.58680436</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>20.28100436</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>20.25380436</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>20.30290691</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>20.59010691</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>20.51900691</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>21.73530691</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>22.15690691</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>22.15350691</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>21.76840691</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>21.71510691</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>21.92650691</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>22.04000691</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>19.94370691</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>20.42940691</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>20.05790691</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>20.10790691</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>18.11510691</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>18.87450691</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>19.35630691</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>19.34830691</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19.42920691</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19.42410691</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19.42560691</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>19.53971004</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>19.58331004</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>19.58331004</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>17.93151004</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17.97591004</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>16.70950713</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>18.32750713</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>18.34050713</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19.18270713</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19.18200713</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19.22080713</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19.29160713</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>18.97870713</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>19.39210713</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>19.40150713</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>19.42240713</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>19.41740713</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>19.32530713</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>19.37640713</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>19.37970713</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19.37970713</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>18.34680713</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>15.83630713</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>15.82630713</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>26.3398109</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>26.4595109</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>26.4562109</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>26.4297109</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>26.4599109</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>26.1988109</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>26.3430109</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>27.69830843</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>27.50820843</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>27.83760843</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>28.25900842999999</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>28.38410842999999</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>28.19410842999999</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>29.33700842999999</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>28.26380842999999</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>28.83340843</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>28.78640842999999</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>28.82590842999999</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>28.71610842999999</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>28.78670842999999</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>28.78670842999999</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>31.37950842999999</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>31.21490842999999</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>36.12750560999999</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>36.45220560999999</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>36.06850561</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>34.71890278999999</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>29.44340278999999</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>25.40940278999999</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>25.71810649999999</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5.818479919999993</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2.910779919999992</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4.133285909999993</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4.133285909999993</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>3.525385909999993</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4.542285909999993</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2.127152359999993</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2.398852359999993</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2.290452359999993</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2.628052359999993</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2.607552359999993</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2.513852359999993</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2.513852359999993</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2.678552359999993</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2.700752359999993</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2.717552359999993</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2.638152359999993</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2.028452359999993</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3.955252359999993</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4.208252359999992</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4.169052359999992</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2.641052359999992</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>0.8890523599999922</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1.282447640000008</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1.361052359999992</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2.202952359999992</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2.453852359999992</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2.309652359999992</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2.072652359999992</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1.517452359999992</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-0.449547640000008</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-10.11734764000001</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-10.11734764000001</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-16.37414764000001</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-13.88314764000001</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-14.71714764000001</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-29.96689456000001</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-29.03796707</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-28.01479262000001</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-28.01479262000001</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-27.23966344000001</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-26.01699262000001</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-24.55715506000001</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-25.07845511000001</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-25.10055511000001</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-21.58305511</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-21.18725511</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-23.38395511</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-22.50105511</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-22.78855511</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-24.90385511000001</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-24.55635511000001</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-24.66725511000001</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-23.37295511000001</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-23.46005511000001</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-23.45485511000001</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-23.51825511000001</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-21.78256488000001</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-22.08566490000001</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-22.48446490000001</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-30.30366490000001</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-33.92587255000001</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-33.92208159</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-34.07668690000001</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-37.74680749000001</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-39.92150769000001</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-39.96420769000001</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-39.99930771000001</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-45.95894368</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-47.90864307</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-46.14964364</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-46.14964364</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-47.30334364</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-46.62944364</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-51.79664364</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-52.19914364</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-51.22103618000001</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-51.79353618</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-51.70803618</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-51.72823618</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-51.4464711</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-49.53013618000001</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-49.53013618000001</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-49.40063618000001</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-49.44813618000001</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-49.63363618</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-49.55263618</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-50.04163618</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-49.92113618</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-49.92113618</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-50.10863618</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-48.58782324</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-48.58782324</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-48.55522324</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-48.61322324</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-50.28272324</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-49.80602323999999</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-49.89182323999999</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-51.04842323999999</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-51.04202323999999</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-51.80682323999999</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-51.82062324</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-54.72155072000002</v>
       </c>
       <c r="H941">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-65.72925993000001</v>
       </c>
       <c r="H942">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-68.55765993000001</v>
       </c>
       <c r="H943">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H944">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H945">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H946">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-70.54960646000001</v>
       </c>
       <c r="H947">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-71.69130646000001</v>
       </c>
       <c r="H948">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-72.74990646000001</v>
       </c>
       <c r="H949">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-72.74990646000001</v>
       </c>
       <c r="H950">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-72.18430646</v>
       </c>
       <c r="H951">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-71.72380646000001</v>
       </c>
       <c r="H952">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-72.53080648000001</v>
       </c>
       <c r="H953">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-73.75850648000001</v>
       </c>
       <c r="H954">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-71.01720648000001</v>
       </c>
       <c r="H955">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-71.01720648000001</v>
       </c>
       <c r="H956">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-70.87200117000002</v>
       </c>
       <c r="H957">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-71.84510117000002</v>
       </c>
       <c r="H958">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-73.72160117000001</v>
       </c>
       <c r="H959">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-73.87240117000002</v>
       </c>
       <c r="H960">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-73.83340117000002</v>
       </c>
       <c r="H961">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-73.19992470000001</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-73.19992470000001</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-72.49031756000001</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-73.14911756000001</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-73.02311756</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-73.02311756</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-73.24681756</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-73.18291755999999</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-73.59321756</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-73.59321756</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-82.73021756</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-82.54831756</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-82.82621756</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-83.51181753</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-83.82421753</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-81.54800274999999</v>
       </c>
       <c r="H977">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H978">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H979">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-80.93270274999999</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-80.99040274999999</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-67.20440979</v>
       </c>
       <c r="H1023">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-66.74810979</v>
       </c>
       <c r="H1024">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-67.70270979</v>
       </c>
       <c r="H1025">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-65.64454234999999</v>
       </c>
       <c r="H1026">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-66.98474234999999</v>
       </c>
       <c r="H1027">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-66.52084234999998</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-66.50854234999998</v>
       </c>
       <c r="H1031">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-66.40094234999998</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-66.72777734999998</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-66.76557734999999</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-66.38204858999998</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-66.95016723999997</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -30916,7 +30916,7 @@
         <v>-91.07183818999998</v>
       </c>
       <c r="H1174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1175" spans="1:8">
@@ -30942,7 +30942,7 @@
         <v>-91.53593818999998</v>
       </c>
       <c r="H1175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1176" spans="1:8">
@@ -30968,7 +30968,7 @@
         <v>-91.53343818999998</v>
       </c>
       <c r="H1176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177" spans="1:8">
@@ -30994,7 +30994,7 @@
         <v>-91.58173818999998</v>
       </c>
       <c r="H1177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1178" spans="1:8">
@@ -31020,7 +31020,7 @@
         <v>-91.59173818999999</v>
       </c>
       <c r="H1178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1179" spans="1:8">
@@ -31046,7 +31046,7 @@
         <v>-91.42623818999999</v>
       </c>
       <c r="H1179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180" spans="1:8">
@@ -31072,7 +31072,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1181" spans="1:8">
@@ -31098,7 +31098,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1182" spans="1:8">
@@ -31124,7 +31124,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1183" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31176,7 +31176,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1185" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-91.68503818999999</v>
       </c>
       <c r="H1185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-86.38393818999998</v>
       </c>
       <c r="H1186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-85.41455687999999</v>
       </c>
       <c r="H1190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-82.42155688</v>
       </c>
       <c r="H1191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31618,7 +31618,7 @@
         <v>-86.87055688</v>
       </c>
       <c r="H1201">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1202" spans="1:8">
@@ -31644,7 +31644,7 @@
         <v>-86.87055688</v>
       </c>
       <c r="H1202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203" spans="1:8">
@@ -31670,7 +31670,7 @@
         <v>-87.29455688</v>
       </c>
       <c r="H1203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1204" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-81.39487302999999</v>
       </c>
       <c r="H1211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-82.68307645</v>
       </c>
       <c r="H1220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-82.69397645000001</v>
       </c>
       <c r="H1221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-70.62899132000001</v>
       </c>
       <c r="H1231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-70.62899132000001</v>
       </c>
       <c r="H1232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-70.47049132000002</v>
       </c>
       <c r="H1237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-71.71409132000002</v>
       </c>
       <c r="H1238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-71.71409132000002</v>
       </c>
       <c r="H1239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>11.55963425000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>10.18353425</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>9.923419850000004</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>10.15251985</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>9.962719850000004</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>20.63801985000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>19.72241985</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>18.76091985</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>20.00011985</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>20.72121985</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>20.12821985</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>19.70791985</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>20.83301985</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>20.83301985</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>22.59582943</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>20.25742943</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>20.25742943</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>20.90562943</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>20.90562943</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>17.67322943</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>15.21092943</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>18.15592943</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>18.15852943</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>18.15512943</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>18.16592943</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>18.16592943</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>18.03086662</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>17.27566662</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>17.26936662</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>17.29576662</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>18.29366651</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>18.29366651</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>18.14616291</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>18.14636291</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>18.65113255</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>18.6099422</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>18.6470422</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>8.011142199999998</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>8.011142199999998</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>18.33833386</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>18.91093386</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>20.47363386</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>20.47363386</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>20.41373386</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>20.41424157000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>20.41424157000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>20.41424157000001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>20.15074157</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>21.73804157</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>21.32074157</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>21.41364157</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>26.15268158</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>27.39968158</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>27.39968158</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>17.02498158</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>17.02018158</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>18.91938158</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>18.96548158</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>18.96548158</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>19.07098158</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>19.06148158</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>19.08788158</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>17.97128158</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>17.97128158</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>17.97848477</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>18.25378477</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>19.08617839</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>20.83547839000001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>20.82187839000001</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>21.13697839000001</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>20.67477557</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>18.53797557</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>18.18887557</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>18.18547557</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>18.18547557</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>18.14767557</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>16.68497557</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>15.58037557</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>15.58037557</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>15.99067557</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>15.9351699</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>15.9335699</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>15.9335699</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>15.9160699</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>15.9053699</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>15.9053699</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>16.4057699</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>16.3950699</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>16.3950699</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>16.3950699</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>16.2467699</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>16.2650699</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>16.2650699</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17.3280699</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>17.3280699</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>17.4439699</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>17.5148699</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>17.5148699</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>17.5148699</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>17.5107699</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>17.5251699</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>17.5080699</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>17.58680436</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>20.28260436</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>20.28100436</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>20.25380436</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>20.33760691</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>20.30290691</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>20.59010691</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>20.51900691</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>21.73530691</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>22.15690691</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>22.15350691</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>21.76840691</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>21.71510691</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>21.92650691</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>22.04000691</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>19.94370691</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>20.42940691</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>20.05790691</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>20.10790691</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>18.11510691</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>18.87450691</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>19.35630691</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>19.34830691</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>19.42920691</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>19.42410691</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>19.42560691</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>19.53971004</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>19.58331004</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>19.58331004</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>17.93151004</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>17.97591004</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>16.70950713</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>18.32750713</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>18.34050713</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>19.18270713</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>19.18200713</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>19.22080713</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>19.29160713</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>18.97870713</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>19.39210713</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>19.40150713</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>19.42240713</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>19.41740713</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>19.32530713</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>19.37640713</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>19.37970713</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>19.37970713</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>18.34680713</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>15.83630713</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>15.82630713</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>16.23930713</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>16.22190713</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>16.17460713</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>16.24270713</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>16.24270713</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>16.25350713</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>16.25350713</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>16.06600713</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>15.95650713</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>26.3398109</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>26.7435109</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>28.0061109</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>28.0104109</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>26.8476109</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>26.4019109</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>26.4595109</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>26.4562109</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>26.4297109</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>26.4599109</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>26.1937109</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>26.1988109</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>26.3430109</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>26.3430109</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>27.70220843</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>27.69830843</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>27.83760843</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>27.79030843</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>28.25900842999999</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>28.38410842999999</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>28.19410842999999</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>29.33700842999999</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>28.26380842999999</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>28.83340843</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>28.78640842999999</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>28.82590842999999</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>28.62970842999999</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>28.71610842999999</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>28.78670842999999</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>28.78670842999999</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>31.37950842999999</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>31.21490842999999</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>36.12750560999999</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>36.45220560999999</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>36.06850561</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>34.71890278999999</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>29.44340278999999</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>25.40940278999999</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>25.71810649999999</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>5.818479919999993</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>2.910779919999992</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>4.133285909999993</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>4.133285909999993</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>3.525385909999993</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>4.542285909999993</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>4.484185909999994</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>2.127152359999993</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>2.398852359999993</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>2.290452359999993</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>2.628052359999993</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>2.607552359999993</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>2.513852359999993</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>2.513852359999993</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>2.678552359999993</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>2.700752359999993</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>2.941752359999993</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>2.717552359999993</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>2.638152359999993</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>2.615852359999993</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>2.028452359999993</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3.955252359999993</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>4.208252359999992</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>4.169052359999992</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>2.641052359999992</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>0.8890523599999922</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-1.282447640000008</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1.361052359999992</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>2.202952359999992</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>2.453852359999992</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>2.309652359999992</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>2.072652359999992</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1.517452359999992</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-0.449547640000008</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-10.11734764000001</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-10.11734764000001</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-16.37414764000001</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-13.88314764000001</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-14.71714764000001</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-29.96689456000001</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-29.03796707</v>
       </c>
       <c r="H600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-28.01479262000001</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-28.01479262000001</v>
       </c>
       <c r="H611">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-27.23966344000001</v>
       </c>
       <c r="H612">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-26.01699262000001</v>
       </c>
       <c r="H619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-24.55715506000001</v>
       </c>
       <c r="H620">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-25.07845511000001</v>
       </c>
       <c r="H621">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-25.10055511000001</v>
       </c>
       <c r="H622">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-21.58305511</v>
       </c>
       <c r="H626">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-21.18725511</v>
       </c>
       <c r="H627">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-23.38395511</v>
       </c>
       <c r="H628">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-22.50105511</v>
       </c>
       <c r="H629">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-22.78855511</v>
       </c>
       <c r="H630">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-24.90385511000001</v>
       </c>
       <c r="H631">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-24.55635511000001</v>
       </c>
       <c r="H632">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-24.66725511000001</v>
       </c>
       <c r="H633">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-23.37295511000001</v>
       </c>
       <c r="H634">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-23.46005511000001</v>
       </c>
       <c r="H635">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-23.45485511000001</v>
       </c>
       <c r="H636">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-23.51825511000001</v>
       </c>
       <c r="H637">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-21.78256488000001</v>
       </c>
       <c r="H638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-22.08566490000001</v>
       </c>
       <c r="H639">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-22.48446490000001</v>
       </c>
       <c r="H640">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-30.30366490000001</v>
       </c>
       <c r="H643">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-33.92587255000001</v>
       </c>
       <c r="H644">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-33.92208159</v>
       </c>
       <c r="H645">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-34.07668690000001</v>
       </c>
       <c r="H646">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-37.74680749000001</v>
       </c>
       <c r="H648">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-39.92150769000001</v>
       </c>
       <c r="H651">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-39.96420769000001</v>
       </c>
       <c r="H652">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-39.99930771000001</v>
       </c>
       <c r="H653">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-45.95894368</v>
       </c>
       <c r="H798">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-47.90864307</v>
       </c>
       <c r="H799">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-46.14964364</v>
       </c>
       <c r="H800">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-46.14964364</v>
       </c>
       <c r="H801">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-47.30334364</v>
       </c>
       <c r="H802">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-46.62944364</v>
       </c>
       <c r="H803">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-51.79664364</v>
       </c>
       <c r="H804">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-52.19914364</v>
       </c>
       <c r="H805">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-51.22103618000001</v>
       </c>
       <c r="H806">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-51.79353618</v>
       </c>
       <c r="H807">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-51.70803618</v>
       </c>
       <c r="H808">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-51.72823618</v>
       </c>
       <c r="H809">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-51.4464711</v>
       </c>
       <c r="H810">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-49.53013618000001</v>
       </c>
       <c r="H811">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-49.53013618000001</v>
       </c>
       <c r="H812">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-49.40063618000001</v>
       </c>
       <c r="H813">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-49.44813618000001</v>
       </c>
       <c r="H814">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-49.63363618</v>
       </c>
       <c r="H815">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-49.55263618</v>
       </c>
       <c r="H816">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-50.04163618</v>
       </c>
       <c r="H817">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-49.92113618</v>
       </c>
       <c r="H818">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-49.92113618</v>
       </c>
       <c r="H819">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-50.10863618</v>
       </c>
       <c r="H820">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-48.58782324</v>
       </c>
       <c r="H821">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-48.58782324</v>
       </c>
       <c r="H822">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-48.55522324</v>
       </c>
       <c r="H823">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-48.61322324</v>
       </c>
       <c r="H824">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-50.28272324</v>
       </c>
       <c r="H825">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-49.80602323999999</v>
       </c>
       <c r="H826">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H827">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H828">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H829">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H830">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-49.90902324</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-49.89182323999999</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-51.04842323999999</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-51.04202323999999</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>-51.80682323999999</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-51.82062324</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -24858,7 +24858,7 @@
         <v>-54.72155072000002</v>
       </c>
       <c r="H941">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:8">
@@ -24884,7 +24884,7 @@
         <v>-65.72925993000001</v>
       </c>
       <c r="H942">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:8">
@@ -24910,7 +24910,7 @@
         <v>-68.55765993000001</v>
       </c>
       <c r="H943">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:8">
@@ -24936,7 +24936,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H944">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:8">
@@ -24962,7 +24962,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H945">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:8">
@@ -24988,7 +24988,7 @@
         <v>-70.32085993000001</v>
       </c>
       <c r="H946">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:8">
@@ -25014,7 +25014,7 @@
         <v>-70.54960646000001</v>
       </c>
       <c r="H947">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:8">
@@ -25040,7 +25040,7 @@
         <v>-71.69130646000001</v>
       </c>
       <c r="H948">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:8">
@@ -25066,7 +25066,7 @@
         <v>-72.74990646000001</v>
       </c>
       <c r="H949">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:8">
@@ -25092,7 +25092,7 @@
         <v>-72.74990646000001</v>
       </c>
       <c r="H950">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:8">
@@ -25118,7 +25118,7 @@
         <v>-72.18430646</v>
       </c>
       <c r="H951">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:8">
@@ -25144,7 +25144,7 @@
         <v>-71.72380646000001</v>
       </c>
       <c r="H952">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:8">
@@ -25170,7 +25170,7 @@
         <v>-72.53080648000001</v>
       </c>
       <c r="H953">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:8">
@@ -25196,7 +25196,7 @@
         <v>-73.75850648000001</v>
       </c>
       <c r="H954">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:8">
@@ -25222,7 +25222,7 @@
         <v>-71.01720648000001</v>
       </c>
       <c r="H955">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:8">
@@ -25248,7 +25248,7 @@
         <v>-71.01720648000001</v>
       </c>
       <c r="H956">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:8">
@@ -25274,7 +25274,7 @@
         <v>-70.87200117000002</v>
       </c>
       <c r="H957">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:8">
@@ -25300,7 +25300,7 @@
         <v>-71.84510117000002</v>
       </c>
       <c r="H958">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:8">
@@ -25326,7 +25326,7 @@
         <v>-73.72160117000001</v>
       </c>
       <c r="H959">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:8">
@@ -25352,7 +25352,7 @@
         <v>-73.87240117000002</v>
       </c>
       <c r="H960">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:8">
@@ -25378,7 +25378,7 @@
         <v>-73.83340117000002</v>
       </c>
       <c r="H961">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>-73.19992470000001</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>-73.19992470000001</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>-72.49031756000001</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>-73.14911756000001</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>-73.02311756</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>-73.02311756</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>-73.24681756</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>-73.18291755999999</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>-73.59321756</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>-73.59321756</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>-82.73021756</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>-82.54831756</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>-82.82621756</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>-83.51181753</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>-83.82421753</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -25794,7 +25794,7 @@
         <v>-81.54800274999999</v>
       </c>
       <c r="H977">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:8">
@@ -25820,7 +25820,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H978">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:8">
@@ -25846,7 +25846,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H979">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-81.97700275</v>
       </c>
       <c r="H980">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-80.93270274999999</v>
       </c>
       <c r="H981">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-80.99040274999999</v>
       </c>
       <c r="H982">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -26990,7 +26990,7 @@
         <v>-67.20440979</v>
       </c>
       <c r="H1023">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1024" spans="1:8">
@@ -27016,7 +27016,7 @@
         <v>-66.74810979</v>
       </c>
       <c r="H1024">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1025" spans="1:8">
@@ -27042,7 +27042,7 @@
         <v>-67.70270979</v>
       </c>
       <c r="H1025">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1026" spans="1:8">
@@ -27068,7 +27068,7 @@
         <v>-65.64454234999999</v>
       </c>
       <c r="H1026">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1027" spans="1:8">
@@ -27094,7 +27094,7 @@
         <v>-66.98474234999999</v>
       </c>
       <c r="H1027">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1028" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-66.52084234999998</v>
       </c>
       <c r="H1030">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27198,7 +27198,7 @@
         <v>-66.50854234999998</v>
       </c>
       <c r="H1031">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1032" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-66.40094234999998</v>
       </c>
       <c r="H1032">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-66.72777734999998</v>
       </c>
       <c r="H1033">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-66.76557734999999</v>
       </c>
       <c r="H1034">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-66.38204858999998</v>
       </c>
       <c r="H1035">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-66.95016723999997</v>
       </c>
       <c r="H1049">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -31150,7 +31150,7 @@
         <v>-91.30553818999999</v>
       </c>
       <c r="H1183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1184" spans="1:8">
@@ -31202,7 +31202,7 @@
         <v>-91.68503818999999</v>
       </c>
       <c r="H1185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1186" spans="1:8">
@@ -31228,7 +31228,7 @@
         <v>-86.38393818999998</v>
       </c>
       <c r="H1186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1187" spans="1:8">
@@ -31332,7 +31332,7 @@
         <v>-85.41455687999999</v>
       </c>
       <c r="H1190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1191" spans="1:8">
@@ -31358,7 +31358,7 @@
         <v>-82.42155688</v>
       </c>
       <c r="H1191">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:8">
@@ -31384,7 +31384,7 @@
         <v>-84.53365688</v>
       </c>
       <c r="H1192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1193" spans="1:8">
@@ -31410,7 +31410,7 @@
         <v>-85.22115688</v>
       </c>
       <c r="H1193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1194" spans="1:8">
@@ -31878,7 +31878,7 @@
         <v>-81.39487302999999</v>
       </c>
       <c r="H1211">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1212" spans="1:8">
@@ -31904,7 +31904,7 @@
         <v>-81.77792605999998</v>
       </c>
       <c r="H1212">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1213" spans="1:8">
@@ -31930,7 +31930,7 @@
         <v>-80.77532605999998</v>
       </c>
       <c r="H1213">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1214" spans="1:8">
@@ -31956,7 +31956,7 @@
         <v>-80.81052605999999</v>
       </c>
       <c r="H1214">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1215" spans="1:8">
@@ -32008,7 +32008,7 @@
         <v>-82.09422606</v>
       </c>
       <c r="H1216">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1217" spans="1:8">
@@ -32034,7 +32034,7 @@
         <v>-82.33917645</v>
       </c>
       <c r="H1217">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1218" spans="1:8">
@@ -32060,7 +32060,7 @@
         <v>-83.27847645</v>
       </c>
       <c r="H1218">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1219" spans="1:8">
@@ -32086,7 +32086,7 @@
         <v>-83.28027645</v>
       </c>
       <c r="H1219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1220" spans="1:8">
@@ -32112,7 +32112,7 @@
         <v>-82.68307645</v>
       </c>
       <c r="H1220">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1221" spans="1:8">
@@ -32138,7 +32138,7 @@
         <v>-82.69397645000001</v>
       </c>
       <c r="H1221">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1222" spans="1:8">
@@ -32164,7 +32164,7 @@
         <v>-83.03397645000001</v>
       </c>
       <c r="H1222">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1223" spans="1:8">
@@ -32190,7 +32190,7 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1223">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1224" spans="1:8">
@@ -32216,7 +32216,7 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1224">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1225" spans="1:8">
@@ -32242,7 +32242,7 @@
         <v>-83.06147645000001</v>
       </c>
       <c r="H1225">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1226" spans="1:8">
@@ -32268,7 +32268,7 @@
         <v>-80.43127645000001</v>
       </c>
       <c r="H1226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1227" spans="1:8">
@@ -32294,7 +32294,7 @@
         <v>-72.91097645000001</v>
       </c>
       <c r="H1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:8">
@@ -32398,7 +32398,7 @@
         <v>-70.62899132000001</v>
       </c>
       <c r="H1231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1232" spans="1:8">
@@ -32424,7 +32424,7 @@
         <v>-70.62899132000001</v>
       </c>
       <c r="H1232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233" spans="1:8">
@@ -32554,7 +32554,7 @@
         <v>-70.47049132000002</v>
       </c>
       <c r="H1237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1238" spans="1:8">
@@ -32580,7 +32580,7 @@
         <v>-71.71409132000002</v>
       </c>
       <c r="H1238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:8">
@@ -32606,7 +32606,7 @@
         <v>-71.71409132000002</v>
       </c>
       <c r="H1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:8">
